--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sertad1-Ar.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sertad1-Ar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.4265904482868</v>
+        <v>11.657181</v>
       </c>
       <c r="H2">
-        <v>11.4265904482868</v>
+        <v>23.314362</v>
       </c>
       <c r="I2">
-        <v>0.1480738997085446</v>
+        <v>0.1455665402801506</v>
       </c>
       <c r="J2">
-        <v>0.1480738997085446</v>
+        <v>0.1082974751579395</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>4.2251920147382</v>
+        <v>0.3735055</v>
       </c>
       <c r="N2">
-        <v>4.2251920147382</v>
+        <v>0.747011</v>
       </c>
       <c r="O2">
-        <v>0.4434101839993171</v>
+        <v>0.03399445429829198</v>
       </c>
       <c r="P2">
-        <v>0.4434101839993171</v>
+        <v>0.02776558843856435</v>
       </c>
       <c r="Q2">
-        <v>48.27953871778518</v>
+        <v>4.354021217995499</v>
       </c>
       <c r="R2">
-        <v>48.27953871778518</v>
+        <v>17.416084871982</v>
       </c>
       <c r="S2">
-        <v>0.06565747511526221</v>
+        <v>0.004948455100914059</v>
       </c>
       <c r="T2">
-        <v>0.06565747511526221</v>
+        <v>0.003006943124170994</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.4265904482868</v>
+        <v>11.657181</v>
       </c>
       <c r="H3">
-        <v>11.4265904482868</v>
+        <v>23.314362</v>
       </c>
       <c r="I3">
-        <v>0.1480738997085446</v>
+        <v>0.1455665402801506</v>
       </c>
       <c r="J3">
-        <v>0.1480738997085446</v>
+        <v>0.1082974751579395</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.30366448699859</v>
+        <v>4.483302666666667</v>
       </c>
       <c r="N3">
-        <v>5.30366448699859</v>
+        <v>13.449908</v>
       </c>
       <c r="O3">
-        <v>0.5565898160006828</v>
+        <v>0.4080460063035499</v>
       </c>
       <c r="P3">
-        <v>0.5565898160006828</v>
+        <v>0.4999184885691834</v>
       </c>
       <c r="Q3">
-        <v>60.60280196805601</v>
+        <v>52.262670663116</v>
       </c>
       <c r="R3">
-        <v>60.60280196805601</v>
+        <v>313.576023978696</v>
       </c>
       <c r="S3">
-        <v>0.08241642459328243</v>
+        <v>0.05939784541274029</v>
       </c>
       <c r="T3">
-        <v>0.08241642459328243</v>
+        <v>0.05413991009681578</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.95577390450952</v>
+        <v>11.657181</v>
       </c>
       <c r="H4">
-        <v>7.95577390450952</v>
+        <v>23.314362</v>
       </c>
       <c r="I4">
-        <v>0.1030965862101782</v>
+        <v>0.1455665402801506</v>
       </c>
       <c r="J4">
-        <v>0.1030965862101782</v>
+        <v>0.1082974751579395</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>4.2251920147382</v>
+        <v>0.032202</v>
       </c>
       <c r="N4">
-        <v>4.2251920147382</v>
+        <v>0.096606</v>
       </c>
       <c r="O4">
-        <v>0.4434101839993171</v>
+        <v>0.002930852202480548</v>
       </c>
       <c r="P4">
-        <v>0.4434101839993171</v>
+        <v>0.003590740212253833</v>
       </c>
       <c r="Q4">
-        <v>33.61467237239618</v>
+        <v>0.375384542562</v>
       </c>
       <c r="R4">
-        <v>33.61467237239618</v>
+        <v>2.252307255372</v>
       </c>
       <c r="S4">
-        <v>0.0457140762611566</v>
+        <v>0.0004266340151875529</v>
       </c>
       <c r="T4">
-        <v>0.0457140762611566</v>
+        <v>0.0003888680989351737</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.95577390450952</v>
+        <v>11.657181</v>
       </c>
       <c r="H5">
-        <v>7.95577390450952</v>
+        <v>23.314362</v>
       </c>
       <c r="I5">
-        <v>0.1030965862101782</v>
+        <v>0.1455665402801506</v>
       </c>
       <c r="J5">
-        <v>0.1030965862101782</v>
+        <v>0.1082974751579395</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.30366448699859</v>
+        <v>0.4142013333333334</v>
       </c>
       <c r="N5">
-        <v>5.30366448699859</v>
+        <v>1.242604</v>
       </c>
       <c r="O5">
-        <v>0.5565898160006828</v>
+        <v>0.0376983693581262</v>
       </c>
       <c r="P5">
-        <v>0.5565898160006828</v>
+        <v>0.04618624258024825</v>
       </c>
       <c r="Q5">
-        <v>42.19475552393726</v>
+        <v>4.828419913108</v>
       </c>
       <c r="R5">
-        <v>42.19475552393726</v>
+        <v>28.970519478648</v>
       </c>
       <c r="S5">
-        <v>0.05738250994902164</v>
+        <v>0.005487621201665673</v>
       </c>
       <c r="T5">
-        <v>0.05738250994902164</v>
+        <v>0.005001853458473001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.4916658478824</v>
+        <v>11.657181</v>
       </c>
       <c r="H6">
-        <v>15.4916658478824</v>
+        <v>23.314362</v>
       </c>
       <c r="I6">
-        <v>0.2007520428301999</v>
+        <v>0.1455665402801506</v>
       </c>
       <c r="J6">
-        <v>0.2007520428301999</v>
+        <v>0.1082974751579395</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.2251920147382</v>
+        <v>5.6840365</v>
       </c>
       <c r="N6">
-        <v>4.2251920147382</v>
+        <v>11.368073</v>
       </c>
       <c r="O6">
-        <v>0.4434101839993171</v>
+        <v>0.5173303178375513</v>
       </c>
       <c r="P6">
-        <v>0.4434101839993171</v>
+        <v>0.4225389401997502</v>
       </c>
       <c r="Q6">
-        <v>65.45526283546521</v>
+        <v>66.25984229110651</v>
       </c>
       <c r="R6">
-        <v>65.45526283546521</v>
+        <v>265.039369164426</v>
       </c>
       <c r="S6">
-        <v>0.08901550024957772</v>
+        <v>0.07530598454964305</v>
       </c>
       <c r="T6">
-        <v>0.08901550024957772</v>
+        <v>0.04575990037954451</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.4916658478824</v>
+        <v>8.365599333333334</v>
       </c>
       <c r="H7">
-        <v>15.4916658478824</v>
+        <v>25.096798</v>
       </c>
       <c r="I7">
-        <v>0.2007520428301999</v>
+        <v>0.1044636222362223</v>
       </c>
       <c r="J7">
-        <v>0.2007520428301999</v>
+        <v>0.1165770634405018</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>5.30366448699859</v>
+        <v>0.3735055</v>
       </c>
       <c r="N7">
-        <v>5.30366448699859</v>
+        <v>0.747011</v>
       </c>
       <c r="O7">
-        <v>0.5565898160006828</v>
+        <v>0.03399445429829198</v>
       </c>
       <c r="P7">
-        <v>0.5565898160006828</v>
+        <v>0.02776558843856435</v>
       </c>
       <c r="Q7">
-        <v>82.16259800186279</v>
+        <v>3.124597361796333</v>
       </c>
       <c r="R7">
-        <v>82.16259800186279</v>
+        <v>18.747584170778</v>
       </c>
       <c r="S7">
-        <v>0.1117365425806221</v>
+        <v>0.003551183831943297</v>
       </c>
       <c r="T7">
-        <v>0.1117365425806221</v>
+        <v>0.003236830764865381</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,181 +909,181 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.9411077844175</v>
+        <v>8.365599333333334</v>
       </c>
       <c r="H8">
-        <v>16.9411077844175</v>
+        <v>25.096798</v>
       </c>
       <c r="I8">
-        <v>0.2195349440740295</v>
+        <v>0.1044636222362223</v>
       </c>
       <c r="J8">
-        <v>0.2195349440740295</v>
+        <v>0.1165770634405018</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.2251920147382</v>
+        <v>4.483302666666667</v>
       </c>
       <c r="N8">
-        <v>4.2251920147382</v>
+        <v>13.449908</v>
       </c>
       <c r="O8">
-        <v>0.4434101839993171</v>
+        <v>0.4080460063035499</v>
       </c>
       <c r="P8">
-        <v>0.4434101839993171</v>
+        <v>0.4999184885691834</v>
       </c>
       <c r="Q8">
-        <v>71.57943333153997</v>
+        <v>37.50551379939822</v>
       </c>
       <c r="R8">
-        <v>71.57943333153997</v>
+        <v>337.549624194584</v>
       </c>
       <c r="S8">
-        <v>0.0973440299461452</v>
+        <v>0.04262596385749322</v>
       </c>
       <c r="T8">
-        <v>0.0973440299461452</v>
+        <v>0.05827902935700947</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.9411077844175</v>
+        <v>8.365599333333334</v>
       </c>
       <c r="H9">
-        <v>16.9411077844175</v>
+        <v>25.096798</v>
       </c>
       <c r="I9">
-        <v>0.2195349440740295</v>
+        <v>0.1044636222362223</v>
       </c>
       <c r="J9">
-        <v>0.2195349440740295</v>
+        <v>0.1165770634405018</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>5.30366448699859</v>
+        <v>0.032202</v>
       </c>
       <c r="N9">
-        <v>5.30366448699859</v>
+        <v>0.096606</v>
       </c>
       <c r="O9">
-        <v>0.5565898160006828</v>
+        <v>0.002930852202480548</v>
       </c>
       <c r="P9">
-        <v>0.5565898160006828</v>
+        <v>0.003590740212253833</v>
       </c>
       <c r="Q9">
-        <v>89.84995172663047</v>
+        <v>0.269389029732</v>
       </c>
       <c r="R9">
-        <v>89.84995172663047</v>
+        <v>2.424501267588</v>
       </c>
       <c r="S9">
-        <v>0.1221909141278842</v>
+        <v>0.000306167437310128</v>
       </c>
       <c r="T9">
-        <v>0.1221909141278842</v>
+        <v>0.0004185979495222761</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.2246147505609</v>
+        <v>8.365599333333334</v>
       </c>
       <c r="H10">
-        <v>12.2246147505609</v>
+        <v>25.096798</v>
       </c>
       <c r="I10">
-        <v>0.1584152671562274</v>
+        <v>0.1044636222362223</v>
       </c>
       <c r="J10">
-        <v>0.1584152671562274</v>
+        <v>0.1165770634405018</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>4.2251920147382</v>
+        <v>0.4142013333333334</v>
       </c>
       <c r="N10">
-        <v>4.2251920147382</v>
+        <v>1.242604</v>
       </c>
       <c r="O10">
-        <v>0.4434101839993171</v>
+        <v>0.0376983693581262</v>
       </c>
       <c r="P10">
-        <v>0.4434101839993171</v>
+        <v>0.04618624258024825</v>
       </c>
       <c r="Q10">
-        <v>51.65134462732073</v>
+        <v>3.465042397999111</v>
       </c>
       <c r="R10">
-        <v>51.65134462732073</v>
+        <v>31.185381581992</v>
       </c>
       <c r="S10">
-        <v>0.07024294275804378</v>
+        <v>0.003938108215548873</v>
       </c>
       <c r="T10">
-        <v>0.07024294275804378</v>
+        <v>0.005384256531356007</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.2246147505609</v>
+        <v>8.365599333333334</v>
       </c>
       <c r="H11">
-        <v>12.2246147505609</v>
+        <v>25.096798</v>
       </c>
       <c r="I11">
-        <v>0.1584152671562274</v>
+        <v>0.1044636222362223</v>
       </c>
       <c r="J11">
-        <v>0.1584152671562274</v>
+        <v>0.1165770634405018</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.30366448699859</v>
+        <v>5.6840365</v>
       </c>
       <c r="N11">
-        <v>5.30366448699859</v>
+        <v>11.368073</v>
       </c>
       <c r="O11">
-        <v>0.5565898160006828</v>
+        <v>0.5173303178375513</v>
       </c>
       <c r="P11">
-        <v>0.5565898160006828</v>
+        <v>0.4225389401997502</v>
       </c>
       <c r="Q11">
-        <v>64.83525511978897</v>
+        <v>47.55037195504234</v>
       </c>
       <c r="R11">
-        <v>64.83525511978897</v>
+        <v>285.302231730254</v>
       </c>
       <c r="S11">
-        <v>0.08817232439818364</v>
+        <v>0.05404219889392677</v>
       </c>
       <c r="T11">
-        <v>0.08817232439818364</v>
+        <v>0.04925834883774868</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,1233 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.1284076948973</v>
+        <v>15.60996433333333</v>
       </c>
       <c r="H12">
-        <v>13.1284076948973</v>
+        <v>46.829893</v>
       </c>
       <c r="I12">
-        <v>0.1701272600208202</v>
+        <v>0.19492607191223</v>
       </c>
       <c r="J12">
-        <v>0.1701272600208202</v>
+        <v>0.2175293998530375</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>4.2251920147382</v>
+        <v>0.3735055</v>
       </c>
       <c r="N12">
-        <v>4.2251920147382</v>
+        <v>0.747011</v>
       </c>
       <c r="O12">
-        <v>0.4434101839993171</v>
+        <v>0.03399445429829198</v>
       </c>
       <c r="P12">
-        <v>0.4434101839993171</v>
+        <v>0.02776558843856435</v>
       </c>
       <c r="Q12">
-        <v>55.47004335870761</v>
+        <v>5.830407533303832</v>
       </c>
       <c r="R12">
-        <v>55.47004335870761</v>
+        <v>34.982445199823</v>
       </c>
       <c r="S12">
-        <v>0.07543615966913153</v>
+        <v>0.006626405443165879</v>
       </c>
       <c r="T12">
-        <v>0.07543615966913153</v>
+        <v>0.00603983178960734</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>15.60996433333333</v>
+      </c>
+      <c r="H13">
+        <v>46.829893</v>
+      </c>
+      <c r="I13">
+        <v>0.19492607191223</v>
+      </c>
+      <c r="J13">
+        <v>0.2175293998530375</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.483302666666667</v>
+      </c>
+      <c r="N13">
+        <v>13.449908</v>
+      </c>
+      <c r="O13">
+        <v>0.4080460063035499</v>
+      </c>
+      <c r="P13">
+        <v>0.4999184885691834</v>
+      </c>
+      <c r="Q13">
+        <v>69.98419472220489</v>
+      </c>
+      <c r="R13">
+        <v>629.857752499844</v>
+      </c>
+      <c r="S13">
+        <v>0.07953880516822402</v>
+      </c>
+      <c r="T13">
+        <v>0.108746968793892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>15.60996433333333</v>
+      </c>
+      <c r="H14">
+        <v>46.829893</v>
+      </c>
+      <c r="I14">
+        <v>0.19492607191223</v>
+      </c>
+      <c r="J14">
+        <v>0.2175293998530375</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.032202</v>
+      </c>
+      <c r="N14">
+        <v>0.096606</v>
+      </c>
+      <c r="O14">
+        <v>0.002930852202480548</v>
+      </c>
+      <c r="P14">
+        <v>0.003590740212253833</v>
+      </c>
+      <c r="Q14">
+        <v>0.502672071462</v>
+      </c>
+      <c r="R14">
+        <v>4.524048643157999</v>
+      </c>
+      <c r="S14">
+        <v>0.000571299507184841</v>
+      </c>
+      <c r="T14">
+        <v>0.0007810915633997448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>15.60996433333333</v>
+      </c>
+      <c r="H15">
+        <v>46.829893</v>
+      </c>
+      <c r="I15">
+        <v>0.19492607191223</v>
+      </c>
+      <c r="J15">
+        <v>0.2175293998530375</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.4142013333333334</v>
+      </c>
+      <c r="N15">
+        <v>1.242604</v>
+      </c>
+      <c r="O15">
+        <v>0.0376983693581262</v>
+      </c>
+      <c r="P15">
+        <v>0.04618624258024825</v>
+      </c>
+      <c r="Q15">
+        <v>6.465668040152445</v>
+      </c>
+      <c r="R15">
+        <v>58.191012361372</v>
+      </c>
+      <c r="S15">
+        <v>0.007348395056475915</v>
+      </c>
+      <c r="T15">
+        <v>0.01004686562994821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>15.60996433333333</v>
+      </c>
+      <c r="H16">
+        <v>46.829893</v>
+      </c>
+      <c r="I16">
+        <v>0.19492607191223</v>
+      </c>
+      <c r="J16">
+        <v>0.2175293998530375</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.6840365</v>
+      </c>
+      <c r="N16">
+        <v>11.368073</v>
+      </c>
+      <c r="O16">
+        <v>0.5173303178375513</v>
+      </c>
+      <c r="P16">
+        <v>0.4225389401997502</v>
+      </c>
+      <c r="Q16">
+        <v>88.72760703436484</v>
+      </c>
+      <c r="R16">
+        <v>532.365642206189</v>
+      </c>
+      <c r="S16">
+        <v>0.1008411667371793</v>
+      </c>
+      <c r="T16">
+        <v>0.09191464207619017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>17.87998133333333</v>
+      </c>
+      <c r="H17">
+        <v>53.639944</v>
+      </c>
+      <c r="I17">
+        <v>0.223272420919518</v>
+      </c>
+      <c r="J17">
+        <v>0.2491627479582441</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.3735055</v>
+      </c>
+      <c r="N17">
+        <v>0.747011</v>
+      </c>
+      <c r="O17">
+        <v>0.03399445429829198</v>
+      </c>
+      <c r="P17">
+        <v>0.02776558843856435</v>
+      </c>
+      <c r="Q17">
+        <v>6.678271367897334</v>
+      </c>
+      <c r="R17">
+        <v>40.069628207384</v>
+      </c>
+      <c r="S17">
+        <v>0.007590024109017566</v>
+      </c>
+      <c r="T17">
+        <v>0.006918150314030347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>17.87998133333333</v>
+      </c>
+      <c r="H18">
+        <v>53.639944</v>
+      </c>
+      <c r="I18">
+        <v>0.223272420919518</v>
+      </c>
+      <c r="J18">
+        <v>0.2491627479582441</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.483302666666667</v>
+      </c>
+      <c r="N18">
+        <v>13.449908</v>
+      </c>
+      <c r="O18">
+        <v>0.4080460063035499</v>
+      </c>
+      <c r="P18">
+        <v>0.4999184885691834</v>
+      </c>
+      <c r="Q18">
+        <v>80.16136799168356</v>
+      </c>
+      <c r="R18">
+        <v>721.452311925152</v>
+      </c>
+      <c r="S18">
+        <v>0.0911054196739345</v>
+      </c>
+      <c r="T18">
+        <v>0.1245610643670298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>17.87998133333333</v>
+      </c>
+      <c r="H19">
+        <v>53.639944</v>
+      </c>
+      <c r="I19">
+        <v>0.223272420919518</v>
+      </c>
+      <c r="J19">
+        <v>0.2491627479582441</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.032202</v>
+      </c>
+      <c r="N19">
+        <v>0.096606</v>
+      </c>
+      <c r="O19">
+        <v>0.002930852202480548</v>
+      </c>
+      <c r="P19">
+        <v>0.003590740212253833</v>
+      </c>
+      <c r="Q19">
+        <v>0.5757711588960001</v>
+      </c>
+      <c r="R19">
+        <v>5.181940430064</v>
+      </c>
+      <c r="S19">
+        <v>0.0006543784666051334</v>
+      </c>
+      <c r="T19">
+        <v>0.0008946786984893337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>17.87998133333333</v>
+      </c>
+      <c r="H20">
+        <v>53.639944</v>
+      </c>
+      <c r="I20">
+        <v>0.223272420919518</v>
+      </c>
+      <c r="J20">
+        <v>0.2491627479582441</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.4142013333333334</v>
+      </c>
+      <c r="N20">
+        <v>1.242604</v>
+      </c>
+      <c r="O20">
+        <v>0.0376983693581262</v>
+      </c>
+      <c r="P20">
+        <v>0.04618624258024825</v>
+      </c>
+      <c r="Q20">
+        <v>7.405912108241778</v>
+      </c>
+      <c r="R20">
+        <v>66.653208974176</v>
+      </c>
+      <c r="S20">
+        <v>0.008417006191307013</v>
+      </c>
+      <c r="T20">
+        <v>0.01150789111916072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>13.1284076948973</v>
-      </c>
-      <c r="H13">
-        <v>13.1284076948973</v>
-      </c>
-      <c r="I13">
-        <v>0.1701272600208202</v>
-      </c>
-      <c r="J13">
-        <v>0.1701272600208202</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.30366448699859</v>
-      </c>
-      <c r="N13">
-        <v>5.30366448699859</v>
-      </c>
-      <c r="O13">
-        <v>0.5565898160006828</v>
-      </c>
-      <c r="P13">
-        <v>0.5565898160006828</v>
-      </c>
-      <c r="Q13">
-        <v>69.62866966226584</v>
-      </c>
-      <c r="R13">
-        <v>69.62866966226584</v>
-      </c>
-      <c r="S13">
-        <v>0.09469110035168861</v>
-      </c>
-      <c r="T13">
-        <v>0.09469110035168861</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>17.87998133333333</v>
+      </c>
+      <c r="H21">
+        <v>53.639944</v>
+      </c>
+      <c r="I21">
+        <v>0.223272420919518</v>
+      </c>
+      <c r="J21">
+        <v>0.2491627479582441</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.6840365</v>
+      </c>
+      <c r="N21">
+        <v>11.368073</v>
+      </c>
+      <c r="O21">
+        <v>0.5173303178375513</v>
+      </c>
+      <c r="P21">
+        <v>0.4225389401997502</v>
+      </c>
+      <c r="Q21">
+        <v>101.6304665179853</v>
+      </c>
+      <c r="R21">
+        <v>609.7827991079121</v>
+      </c>
+      <c r="S21">
+        <v>0.1155055924786538</v>
+      </c>
+      <c r="T21">
+        <v>0.1052809634595339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>13.262289</v>
+      </c>
+      <c r="H22">
+        <v>39.786867</v>
+      </c>
+      <c r="I22">
+        <v>0.1656099811717343</v>
+      </c>
+      <c r="J22">
+        <v>0.1848138602525234</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.3735055</v>
+      </c>
+      <c r="N22">
+        <v>0.747011</v>
+      </c>
+      <c r="O22">
+        <v>0.03399445429829198</v>
+      </c>
+      <c r="P22">
+        <v>0.02776558843856435</v>
+      </c>
+      <c r="Q22">
+        <v>4.9535378840895</v>
+      </c>
+      <c r="R22">
+        <v>29.721227304537</v>
+      </c>
+      <c r="S22">
+        <v>0.005629820936283517</v>
+      </c>
+      <c r="T22">
+        <v>0.005131465581513912</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>13.262289</v>
+      </c>
+      <c r="H23">
+        <v>39.786867</v>
+      </c>
+      <c r="I23">
+        <v>0.1656099811717343</v>
+      </c>
+      <c r="J23">
+        <v>0.1848138602525234</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.483302666666667</v>
+      </c>
+      <c r="N23">
+        <v>13.449908</v>
+      </c>
+      <c r="O23">
+        <v>0.4080460063035499</v>
+      </c>
+      <c r="P23">
+        <v>0.4999184885691834</v>
+      </c>
+      <c r="Q23">
+        <v>59.45885563980401</v>
+      </c>
+      <c r="R23">
+        <v>535.129700758236</v>
+      </c>
+      <c r="S23">
+        <v>0.06757649142113227</v>
+      </c>
+      <c r="T23">
+        <v>0.09239186568407777</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>13.262289</v>
+      </c>
+      <c r="H24">
+        <v>39.786867</v>
+      </c>
+      <c r="I24">
+        <v>0.1656099811717343</v>
+      </c>
+      <c r="J24">
+        <v>0.1848138602525234</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.032202</v>
+      </c>
+      <c r="N24">
+        <v>0.096606</v>
+      </c>
+      <c r="O24">
+        <v>0.002930852202480548</v>
+      </c>
+      <c r="P24">
+        <v>0.003590740212253833</v>
+      </c>
+      <c r="Q24">
+        <v>0.4270722303780001</v>
+      </c>
+      <c r="R24">
+        <v>3.843650073402</v>
+      </c>
+      <c r="S24">
+        <v>0.0004853783780699396</v>
+      </c>
+      <c r="T24">
+        <v>0.000663618559790596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>13.262289</v>
+      </c>
+      <c r="H25">
+        <v>39.786867</v>
+      </c>
+      <c r="I25">
+        <v>0.1656099811717343</v>
+      </c>
+      <c r="J25">
+        <v>0.1848138602525234</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.4142013333333334</v>
+      </c>
+      <c r="N25">
+        <v>1.242604</v>
+      </c>
+      <c r="O25">
+        <v>0.0376983693581262</v>
+      </c>
+      <c r="P25">
+        <v>0.04618624258024825</v>
+      </c>
+      <c r="Q25">
+        <v>5.493257786852001</v>
+      </c>
+      <c r="R25">
+        <v>49.439320081668</v>
+      </c>
+      <c r="S25">
+        <v>0.006243226239604364</v>
+      </c>
+      <c r="T25">
+        <v>0.008535857781815145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>13.262289</v>
+      </c>
+      <c r="H26">
+        <v>39.786867</v>
+      </c>
+      <c r="I26">
+        <v>0.1656099811717343</v>
+      </c>
+      <c r="J26">
+        <v>0.1848138602525234</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.6840365</v>
+      </c>
+      <c r="N26">
+        <v>11.368073</v>
+      </c>
+      <c r="O26">
+        <v>0.5173303178375513</v>
+      </c>
+      <c r="P26">
+        <v>0.4225389401997502</v>
+      </c>
+      <c r="Q26">
+        <v>75.38333474954851</v>
+      </c>
+      <c r="R26">
+        <v>452.3000084972911</v>
+      </c>
+      <c r="S26">
+        <v>0.0856750641966442</v>
+      </c>
+      <c r="T26">
+        <v>0.07809105264532597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>13.3064445</v>
+      </c>
+      <c r="H27">
+        <v>26.612889</v>
+      </c>
+      <c r="I27">
+        <v>0.1661613634801449</v>
+      </c>
+      <c r="J27">
+        <v>0.1236194533377538</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.5</v>
+      </c>
+      <c r="M27">
+        <v>0.3735055</v>
+      </c>
+      <c r="N27">
+        <v>0.747011</v>
+      </c>
+      <c r="O27">
+        <v>0.03399445429829198</v>
+      </c>
+      <c r="P27">
+        <v>0.02776558843856435</v>
+      </c>
+      <c r="Q27">
+        <v>4.970030206194751</v>
+      </c>
+      <c r="R27">
+        <v>19.880120824779</v>
+      </c>
+      <c r="S27">
+        <v>0.005648564876967668</v>
+      </c>
+      <c r="T27">
+        <v>0.003432366864376383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>13.3064445</v>
+      </c>
+      <c r="H28">
+        <v>26.612889</v>
+      </c>
+      <c r="I28">
+        <v>0.1661613634801449</v>
+      </c>
+      <c r="J28">
+        <v>0.1236194533377538</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>4.483302666666667</v>
+      </c>
+      <c r="N28">
+        <v>13.449908</v>
+      </c>
+      <c r="O28">
+        <v>0.4080460063035499</v>
+      </c>
+      <c r="P28">
+        <v>0.4999184885691834</v>
+      </c>
+      <c r="Q28">
+        <v>59.65681811070201</v>
+      </c>
+      <c r="R28">
+        <v>357.940908664212</v>
+      </c>
+      <c r="S28">
+        <v>0.06780148077002565</v>
+      </c>
+      <c r="T28">
+        <v>0.06179965027035857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>13.3064445</v>
+      </c>
+      <c r="H29">
+        <v>26.612889</v>
+      </c>
+      <c r="I29">
+        <v>0.1661613634801449</v>
+      </c>
+      <c r="J29">
+        <v>0.1236194533377538</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.032202</v>
+      </c>
+      <c r="N29">
+        <v>0.096606</v>
+      </c>
+      <c r="O29">
+        <v>0.002930852202480548</v>
+      </c>
+      <c r="P29">
+        <v>0.003590740212253833</v>
+      </c>
+      <c r="Q29">
+        <v>0.428494125789</v>
+      </c>
+      <c r="R29">
+        <v>2.570964754734</v>
+      </c>
+      <c r="S29">
+        <v>0.0004869943981229536</v>
+      </c>
+      <c r="T29">
+        <v>0.0004438853421167089</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>13.3064445</v>
+      </c>
+      <c r="H30">
+        <v>26.612889</v>
+      </c>
+      <c r="I30">
+        <v>0.1661613634801449</v>
+      </c>
+      <c r="J30">
+        <v>0.1236194533377538</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.4142013333333334</v>
+      </c>
+      <c r="N30">
+        <v>1.242604</v>
+      </c>
+      <c r="O30">
+        <v>0.0376983693581262</v>
+      </c>
+      <c r="P30">
+        <v>0.04618624258024825</v>
+      </c>
+      <c r="Q30">
+        <v>5.511547053826001</v>
+      </c>
+      <c r="R30">
+        <v>33.06928232295601</v>
+      </c>
+      <c r="S30">
+        <v>0.006264012453524364</v>
+      </c>
+      <c r="T30">
+        <v>0.005709518059495176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>13.3064445</v>
+      </c>
+      <c r="H31">
+        <v>26.612889</v>
+      </c>
+      <c r="I31">
+        <v>0.1661613634801449</v>
+      </c>
+      <c r="J31">
+        <v>0.1236194533377538</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.6840365</v>
+      </c>
+      <c r="N31">
+        <v>11.368073</v>
+      </c>
+      <c r="O31">
+        <v>0.5173303178375513</v>
+      </c>
+      <c r="P31">
+        <v>0.4225389401997502</v>
+      </c>
+      <c r="Q31">
+        <v>75.63431622322426</v>
+      </c>
+      <c r="R31">
+        <v>302.537264892897</v>
+      </c>
+      <c r="S31">
+        <v>0.08596031098150426</v>
+      </c>
+      <c r="T31">
+        <v>0.05223403280140697</v>
       </c>
     </row>
   </sheetData>
